--- a/Starting a Successful Project/Activity/Assign project roles and responsibilities in a RACI chart/Activity-Output_-RACI-Chart---Phase-2.xlsx
+++ b/Starting a Successful Project/Activity/Assign project roles and responsibilities in a RACI chart/Activity-Output_-RACI-Chart---Phase-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>R - Responsible</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -919,13 +922,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>23</v>
@@ -953,10 +956,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>24</v>
@@ -968,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -999,13 +1002,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>25</v>
@@ -1036,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>26</v>
@@ -1048,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1088,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1128,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1390,7 +1393,9 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
